--- a/analysis/data/raw_data/KWL_chronology.xlsx
+++ b/analysis/data/raw_data/KWL_chronology.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EmilyWang/Desktop/School document/LW-Papers/CMHCRchapter/analysis/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EmilyWang/Desktop/School document/LW-Papers/kwlenv/analysis/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B529916F-D5BC-CC48-AADB-9772D4637DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C721003-C5B2-EE4D-8747-C454F35FC7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="500" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32940" yWindow="580" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chronology" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="322">
   <si>
     <t>Pits</t>
   </si>
@@ -2799,7 +2799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
@@ -4310,7 +4310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -7705,7 +7705,7 @@
   <dimension ref="A1:Y59"/>
   <sheetViews>
     <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -10759,8 +10759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BAAB8E-F521-2147-9D41-1BD6DEDE84DD}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11242,6 +11242,12 @@
       <c r="J12" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -11467,6 +11473,9 @@
       <c r="N18" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="O18" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
@@ -11508,6 +11517,9 @@
       <c r="N19" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="O19" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -12201,6 +12213,12 @@
         <v>318</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -12224,6 +12242,12 @@
         <v>318</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>320</v>
       </c>
     </row>
@@ -12244,7 +12268,7 @@
         <v>319</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -12670,6 +12694,9 @@
       <c r="L54" s="1" t="s">
         <v>320</v>
       </c>
+      <c r="M54" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -12706,6 +12733,9 @@
         <v>319</v>
       </c>
       <c r="L55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>320</v>
       </c>
     </row>
